--- a/password_list.xlsx
+++ b/password_list.xlsx
@@ -2,14 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <fileSharing readOnlyRecommended="1"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Megaport\Desktop\repositorys\Password-Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30C8AA9-9A29-4799-A5CA-6DBD4D6E6B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718EF126-A3FD-416B-A1D5-BA684F68A20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25290" yWindow="885" windowWidth="23685" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Application</t>
   </si>
@@ -29,9 +28,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>BHhwX2q@mUvf&amp;a5</t>
   </si>
   <si>
@@ -41,10 +37,19 @@
     <t>0!i@2k$tbzkjgSv</t>
   </si>
   <si>
-    <t>test2</t>
-  </si>
-  <si>
     <t>ku2&amp;w2FZefvkzni</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>^NLVht4[&gt;&amp;#yL$</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test0</t>
   </si>
 </sst>
 </file>
@@ -371,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,30 +398,38 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>